--- a/G_dodatkowe.xlsx
+++ b/G_dodatkowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eryk\Dysk Google\Dokumenty\Praca\Artykuły_publikacje\Rozprawa\GitHub\Kaliop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Politechnika Koszalińska\Dokumenty\Praca\Artykuły_publikacje\Rozprawa\GitHub\Kaliop_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -612,14 +612,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,73 +914,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
     </row>
     <row r="2" spans="1:119" s="2" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1310,34 +1310,34 @@
       <c r="DE2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DF2" s="9" t="s">
+      <c r="DF2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="DG2" s="9" t="s">
+      <c r="DG2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="DH2" s="9" t="s">
+      <c r="DH2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="DI2" s="9" t="s">
+      <c r="DI2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="DJ2" s="9" t="s">
+      <c r="DJ2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="DK2" s="9" t="s">
+      <c r="DK2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="DL2" s="9" t="s">
+      <c r="DL2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="DM2" s="9" t="s">
+      <c r="DM2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="DN2" s="9" t="s">
+      <c r="DN2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="DO2" s="9" t="s">
+      <c r="DO2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
